--- a/Code/Results/Cases/Case_9_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9966970333861283</v>
+        <v>0.9973689805792817</v>
       </c>
       <c r="D2">
-        <v>1.018506761549609</v>
+        <v>1.018798054623881</v>
       </c>
       <c r="E2">
-        <v>1.003397872531735</v>
+        <v>1.004020749226284</v>
       </c>
       <c r="F2">
-        <v>1.023697391339666</v>
+        <v>1.023974625211123</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043063508968813</v>
+        <v>1.043242105941429</v>
       </c>
       <c r="J2">
-        <v>1.018976986430799</v>
+        <v>1.019628670772013</v>
       </c>
       <c r="K2">
-        <v>1.029714150864448</v>
+        <v>1.030001570222535</v>
       </c>
       <c r="L2">
-        <v>1.014810071701971</v>
+        <v>1.015424351402344</v>
       </c>
       <c r="M2">
-        <v>1.03483616800188</v>
+        <v>1.035109761769161</v>
       </c>
       <c r="N2">
-        <v>1.009745807179392</v>
+        <v>1.01208071348484</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036142867359159</v>
+        <v>1.036359399768366</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032080649906617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032292732354468</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019964151021372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001342216961689</v>
+        <v>1.001704010571222</v>
       </c>
       <c r="D3">
-        <v>1.021619887006745</v>
+        <v>1.021576530014712</v>
       </c>
       <c r="E3">
-        <v>1.007134057138442</v>
+        <v>1.007482560864519</v>
       </c>
       <c r="F3">
-        <v>1.026782065439479</v>
+        <v>1.026921353056843</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044001145595747</v>
+        <v>1.044033787627738</v>
       </c>
       <c r="J3">
-        <v>1.021796358546415</v>
+        <v>1.02214833008434</v>
       </c>
       <c r="K3">
-        <v>1.031983413333014</v>
+        <v>1.031940582334116</v>
       </c>
       <c r="L3">
-        <v>1.017676462963943</v>
+        <v>1.018020587863383</v>
       </c>
       <c r="M3">
-        <v>1.037083359768534</v>
+        <v>1.037220978974939</v>
       </c>
       <c r="N3">
-        <v>1.010746709758602</v>
+        <v>1.012787662781026</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037921377584866</v>
+        <v>1.038030294342811</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033682559027284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033660838499429</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020392682608511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004286884044893</v>
+        <v>1.004455088459423</v>
       </c>
       <c r="D4">
-        <v>1.023596580059379</v>
+        <v>1.023343049407953</v>
       </c>
       <c r="E4">
-        <v>1.00950841806856</v>
+        <v>1.009685470545759</v>
       </c>
       <c r="F4">
-        <v>1.028745803545188</v>
+        <v>1.028799034535686</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044585229445615</v>
+        <v>1.044526206335999</v>
       </c>
       <c r="J4">
-        <v>1.023581562964383</v>
+        <v>1.023745515114862</v>
       </c>
       <c r="K4">
-        <v>1.033418318214725</v>
+        <v>1.033167676716741</v>
       </c>
       <c r="L4">
-        <v>1.019493423581367</v>
+        <v>1.019668389205957</v>
       </c>
       <c r="M4">
-        <v>1.038509242454871</v>
+        <v>1.03856187452095</v>
       </c>
       <c r="N4">
-        <v>1.011379823861077</v>
+        <v>1.013235498480415</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039049871294088</v>
+        <v>1.039091526128326</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034698080260332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03452949511516</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020661319437043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005515911402253</v>
+        <v>1.005603780900876</v>
       </c>
       <c r="D5">
-        <v>1.024424807636789</v>
+        <v>1.024083882171308</v>
       </c>
       <c r="E5">
-        <v>1.010501474235381</v>
+        <v>1.010607308127161</v>
       </c>
       <c r="F5">
-        <v>1.029566304745925</v>
+        <v>1.029583833799214</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044828406239883</v>
+        <v>1.044731210120216</v>
       </c>
       <c r="J5">
-        <v>1.024328044563028</v>
+        <v>1.024413760152372</v>
       </c>
       <c r="K5">
-        <v>1.034019678865223</v>
+        <v>1.033682534427738</v>
       </c>
       <c r="L5">
-        <v>1.020253322894243</v>
+        <v>1.020357943437953</v>
       </c>
       <c r="M5">
-        <v>1.039104527218872</v>
+        <v>1.03912186432643</v>
       </c>
       <c r="N5">
-        <v>1.011645145788809</v>
+        <v>1.013423337808322</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039521000067753</v>
+        <v>1.039534721244504</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035130517747881</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034901475120451</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020774059051134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005727772384844</v>
+        <v>1.005801560332916</v>
       </c>
       <c r="D6">
-        <v>1.024570643183693</v>
+        <v>1.024214521805555</v>
       </c>
       <c r="E6">
-        <v>1.010673567046001</v>
+        <v>1.010766875406665</v>
       </c>
       <c r="F6">
-        <v>1.029706595981196</v>
+        <v>1.029717864110877</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04487251066977</v>
+        <v>1.044768605234506</v>
       </c>
       <c r="J6">
-        <v>1.024459018456146</v>
+        <v>1.024531007134989</v>
       </c>
       <c r="K6">
-        <v>1.034127397803738</v>
+        <v>1.033775207759029</v>
       </c>
       <c r="L6">
-        <v>1.020386270532334</v>
+        <v>1.020478514176748</v>
       </c>
       <c r="M6">
-        <v>1.039207024458152</v>
+        <v>1.039218169768164</v>
       </c>
       <c r="N6">
-        <v>1.011692601167137</v>
+        <v>1.013456953106421</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039602119866197</v>
+        <v>1.039610940642751</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035215486556472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034976672709108</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020795103574112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004320421247056</v>
+        <v>1.004497077425444</v>
       </c>
       <c r="D7">
-        <v>1.023627287161809</v>
+        <v>1.023379432494324</v>
       </c>
       <c r="E7">
-        <v>1.009537766686582</v>
+        <v>1.009722684281897</v>
       </c>
       <c r="F7">
-        <v>1.028764792536247</v>
+        <v>1.028821854326399</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044598173387831</v>
+        <v>1.044541947366064</v>
       </c>
       <c r="J7">
-        <v>1.023608201698732</v>
+        <v>1.023780394036121</v>
       </c>
       <c r="K7">
-        <v>1.033445766878243</v>
+        <v>1.033200735510806</v>
       </c>
       <c r="L7">
-        <v>1.019519462945897</v>
+        <v>1.019702201893969</v>
       </c>
       <c r="M7">
-        <v>1.038525128566822</v>
+        <v>1.038581548576873</v>
       </c>
       <c r="N7">
-        <v>1.011391791326901</v>
+        <v>1.013273732221977</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039062444111815</v>
+        <v>1.039107096854817</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034737737989798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034575115246213</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020671650867529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9983015455794567</v>
+        <v>0.9989000333899648</v>
       </c>
       <c r="D8">
-        <v>1.019591485603136</v>
+        <v>1.019792711330565</v>
       </c>
       <c r="E8">
-        <v>1.004690138343159</v>
+        <v>1.00524961405419</v>
       </c>
       <c r="F8">
-        <v>1.024756877689343</v>
+        <v>1.025001808432697</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043397394785639</v>
+        <v>1.043538154483505</v>
       </c>
       <c r="J8">
-        <v>1.019959131368427</v>
+        <v>1.020540191525778</v>
       </c>
       <c r="K8">
-        <v>1.030512459282403</v>
+        <v>1.030711089421257</v>
       </c>
       <c r="L8">
-        <v>1.015806951325299</v>
+        <v>1.016358942448509</v>
       </c>
       <c r="M8">
-        <v>1.035611626762799</v>
+        <v>1.035853437995747</v>
       </c>
       <c r="N8">
-        <v>1.010097927852988</v>
+        <v>1.012420111298956</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036756594449692</v>
+        <v>1.036947972802571</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032668228550303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032819785103152</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020127207446727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9871746154039451</v>
+        <v>0.988542002144539</v>
       </c>
       <c r="D9">
-        <v>1.01214623844903</v>
+        <v>1.013166503647913</v>
       </c>
       <c r="E9">
-        <v>0.9957741596030801</v>
+        <v>0.9970128212010111</v>
       </c>
       <c r="F9">
-        <v>1.017422959028467</v>
+        <v>1.018010388494649</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041087361171446</v>
+        <v>1.04158590945724</v>
       </c>
       <c r="J9">
-        <v>1.013188544458369</v>
+        <v>1.014505962673006</v>
       </c>
       <c r="K9">
-        <v>1.025045277919793</v>
+        <v>1.026049515229576</v>
       </c>
       <c r="L9">
-        <v>1.008936172227698</v>
+        <v>1.010154549934077</v>
       </c>
       <c r="M9">
-        <v>1.0302395468068</v>
+        <v>1.030817864908845</v>
       </c>
       <c r="N9">
-        <v>1.007688115941851</v>
+        <v>1.010733871951355</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032504918341624</v>
+        <v>1.032962623346493</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028799279487632</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029520212863079</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019080841999398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9794936304837832</v>
+        <v>0.9814580426169744</v>
       </c>
       <c r="D10">
-        <v>1.007045907890015</v>
+        <v>1.008678599788704</v>
       </c>
       <c r="E10">
-        <v>0.9896700353904556</v>
+        <v>0.9914359490888537</v>
       </c>
       <c r="F10">
-        <v>1.012584434473099</v>
+        <v>1.013438346630225</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.03947780254216</v>
+        <v>1.040245114844731</v>
       </c>
       <c r="J10">
-        <v>1.008545153635105</v>
+        <v>1.010427138537623</v>
       </c>
       <c r="K10">
-        <v>1.02128910104571</v>
+        <v>1.022892907678581</v>
       </c>
       <c r="L10">
-        <v>1.004228339398966</v>
+        <v>1.00596157108895</v>
       </c>
       <c r="M10">
-        <v>1.026730130655316</v>
+        <v>1.027569133822516</v>
       </c>
       <c r="N10">
-        <v>1.006045517218686</v>
+        <v>1.009716919532259</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.029779401095435</v>
+        <v>1.030443383354781</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026160366713356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027306931083358</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018371530024606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9768977211896243</v>
+        <v>0.9790981457908204</v>
       </c>
       <c r="D11">
-        <v>1.005442052678048</v>
+        <v>1.007302491517489</v>
       </c>
       <c r="E11">
-        <v>0.9877270872224014</v>
+        <v>0.989697159111967</v>
       </c>
       <c r="F11">
-        <v>1.012330704010052</v>
+        <v>1.013286121997341</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039199184243035</v>
+        <v>1.040058648170878</v>
       </c>
       <c r="J11">
-        <v>1.007264196440847</v>
+        <v>1.009367081030155</v>
       </c>
       <c r="K11">
-        <v>1.020262064453642</v>
+        <v>1.022087995115236</v>
       </c>
       <c r="L11">
-        <v>1.002884224442679</v>
+        <v>1.00481602303696</v>
       </c>
       <c r="M11">
-        <v>1.027023768442501</v>
+        <v>1.027961756914596</v>
       </c>
       <c r="N11">
-        <v>1.005697276007948</v>
+        <v>1.009728908872724</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.030452071580962</v>
+        <v>1.031194009646538</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025467451850647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026774262761555</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018254069622726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9761976758836994</v>
+        <v>0.9784508838504613</v>
       </c>
       <c r="D12">
-        <v>1.005056856671198</v>
+        <v>1.006967742309056</v>
       </c>
       <c r="E12">
-        <v>0.9872582848715058</v>
+        <v>0.9892695114973601</v>
       </c>
       <c r="F12">
-        <v>1.012877298726675</v>
+        <v>1.013852606574621</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039244223279058</v>
+        <v>1.040117558896384</v>
       </c>
       <c r="J12">
-        <v>1.007044707296899</v>
+        <v>1.009196093880697</v>
       </c>
       <c r="K12">
-        <v>1.020087812349352</v>
+        <v>1.021962657875776</v>
       </c>
       <c r="L12">
-        <v>1.002633736189127</v>
+        <v>1.004605219211276</v>
       </c>
       <c r="M12">
-        <v>1.027761879642618</v>
+        <v>1.028719139151942</v>
       </c>
       <c r="N12">
-        <v>1.0057042725034</v>
+        <v>1.009842467945307</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.031364828467275</v>
+        <v>1.032121749528664</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025344246970983</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026685645317112</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018270738812292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9769330512472272</v>
+        <v>0.9790806979075209</v>
       </c>
       <c r="D13">
-        <v>1.005607542199932</v>
+        <v>1.007419387601299</v>
       </c>
       <c r="E13">
-        <v>0.9879110821925838</v>
+        <v>0.9898218593696063</v>
       </c>
       <c r="F13">
-        <v>1.014105567165834</v>
+        <v>1.015030152829856</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039557935554754</v>
+        <v>1.040378296178559</v>
       </c>
       <c r="J13">
-        <v>1.00765045225649</v>
+        <v>1.009701598320243</v>
       </c>
       <c r="K13">
-        <v>1.020584417617355</v>
+        <v>1.022362249784097</v>
       </c>
       <c r="L13">
-        <v>1.00322878401537</v>
+        <v>1.005101990112214</v>
       </c>
       <c r="M13">
-        <v>1.02892428212979</v>
+        <v>1.029831868004284</v>
       </c>
       <c r="N13">
-        <v>1.005996315320334</v>
+        <v>1.010010206289558</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03256233069422</v>
+        <v>1.033279791717306</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025692847152115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.02696540513044</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018396520101617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9780922516536976</v>
+        <v>0.9800961413421077</v>
       </c>
       <c r="D14">
-        <v>1.006414076295189</v>
+        <v>1.008090664212732</v>
       </c>
       <c r="E14">
-        <v>0.9888711867484995</v>
+        <v>0.9906495604583906</v>
       </c>
       <c r="F14">
-        <v>1.015259566090132</v>
+        <v>1.01611788726525</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.039896079796844</v>
+        <v>1.040650396912486</v>
       </c>
       <c r="J14">
-        <v>1.008442700647352</v>
+        <v>1.010357919353797</v>
       </c>
       <c r="K14">
-        <v>1.021232849359166</v>
+        <v>1.022878369415875</v>
       </c>
       <c r="L14">
-        <v>1.004023321716671</v>
+        <v>1.005767196806626</v>
       </c>
       <c r="M14">
-        <v>1.029915934203211</v>
+        <v>1.030758692155833</v>
       </c>
       <c r="N14">
-        <v>1.006328092564593</v>
+        <v>1.010152810098684</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033520404342008</v>
+        <v>1.034186527384272</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026152763203549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027331898292513</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018534003680777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.978698947642861</v>
+        <v>0.9806335925130212</v>
       </c>
       <c r="D15">
-        <v>1.00682617571566</v>
+        <v>1.008437275013498</v>
       </c>
       <c r="E15">
-        <v>0.9893606027396645</v>
+        <v>0.9910763322240677</v>
       </c>
       <c r="F15">
-        <v>1.015723780604113</v>
+        <v>1.016550809165246</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040044896219887</v>
+        <v>1.040768789050475</v>
       </c>
       <c r="J15">
-        <v>1.008828895396909</v>
+        <v>1.010678718404244</v>
       </c>
       <c r="K15">
-        <v>1.02154927965284</v>
+        <v>1.023130758216462</v>
       </c>
       <c r="L15">
-        <v>1.004412929909835</v>
+        <v>1.006095645249127</v>
       </c>
       <c r="M15">
-        <v>1.030284823526038</v>
+        <v>1.031096975823979</v>
       </c>
       <c r="N15">
-        <v>1.006476479249882</v>
+        <v>1.010206777802959</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033849673040219</v>
+        <v>1.034491588177382</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026382437653037</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027516854122041</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018595308534844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9818081277481069</v>
+        <v>0.9834301980287024</v>
       </c>
       <c r="D16">
-        <v>1.008878308128039</v>
+        <v>1.01018869525178</v>
       </c>
       <c r="E16">
-        <v>0.9918100223709112</v>
+        <v>0.99324879604358</v>
       </c>
       <c r="F16">
-        <v>1.017581944660569</v>
+        <v>1.018270430234949</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.040679926419474</v>
+        <v>1.041271991755378</v>
       </c>
       <c r="J16">
-        <v>1.010683419809077</v>
+        <v>1.012238066994223</v>
       </c>
       <c r="K16">
-        <v>1.023052878762283</v>
+        <v>1.024340249870395</v>
       </c>
       <c r="L16">
-        <v>1.006291623033938</v>
+        <v>1.007703985199381</v>
       </c>
       <c r="M16">
-        <v>1.03160507818831</v>
+        <v>1.032281727430009</v>
       </c>
       <c r="N16">
-        <v>1.007117132628488</v>
+        <v>1.01041817991456</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034854311315208</v>
+        <v>1.035389141962243</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027448758613119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028375514498609</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018857891533718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9835918786136213</v>
+        <v>0.9850628830027539</v>
       </c>
       <c r="D17">
-        <v>1.010035608123716</v>
+        <v>1.011196012643876</v>
       </c>
       <c r="E17">
-        <v>0.9931930917252306</v>
+        <v>0.9945006753913189</v>
       </c>
       <c r="F17">
-        <v>1.018402179969745</v>
+        <v>1.019024917380829</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.040989927962708</v>
+        <v>1.041519675348893</v>
       </c>
       <c r="J17">
-        <v>1.011695534172508</v>
+        <v>1.013107426401801</v>
       </c>
       <c r="K17">
-        <v>1.023869935445814</v>
+        <v>1.025010542233409</v>
       </c>
       <c r="L17">
-        <v>1.007321532706243</v>
+        <v>1.008605819684673</v>
       </c>
       <c r="M17">
-        <v>1.032095066394118</v>
+        <v>1.032707395794934</v>
       </c>
       <c r="N17">
-        <v>1.007436286646344</v>
+        <v>1.010537990290297</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035111987277613</v>
+        <v>1.035596027404471</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028029073699768</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028852301001307</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018990437792659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9843699812196872</v>
+        <v>0.9858002589805539</v>
       </c>
       <c r="D18">
-        <v>1.010497190617951</v>
+        <v>1.011613137278856</v>
       </c>
       <c r="E18">
-        <v>0.9937536832807374</v>
+        <v>0.9950298554753658</v>
       </c>
       <c r="F18">
-        <v>1.018289875940457</v>
+        <v>1.018896645100383</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041026081553887</v>
+        <v>1.041542651586953</v>
       </c>
       <c r="J18">
-        <v>1.01203675975686</v>
+        <v>1.01341066088682</v>
       </c>
       <c r="K18">
-        <v>1.024137155955707</v>
+        <v>1.025234379164177</v>
       </c>
       <c r="L18">
-        <v>1.007681114447596</v>
+        <v>1.008934935149079</v>
       </c>
       <c r="M18">
-        <v>1.031800197803943</v>
+        <v>1.032396979450183</v>
       </c>
       <c r="N18">
-        <v>1.007491298499398</v>
+        <v>1.010536486605764</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034639921679203</v>
+        <v>1.035111770671461</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028206245517902</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028997669277157</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019009107499137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9842415258047004</v>
+        <v>0.9857183154158208</v>
       </c>
       <c r="D19">
-        <v>1.010343172098979</v>
+        <v>1.011500886335553</v>
       </c>
       <c r="E19">
-        <v>0.9935763238434736</v>
+        <v>0.9948993813465795</v>
       </c>
       <c r="F19">
-        <v>1.017285223435458</v>
+        <v>1.017915486274372</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.040820765487604</v>
+        <v>1.041363555405165</v>
       </c>
       <c r="J19">
-        <v>1.011775183111447</v>
+        <v>1.013194087122038</v>
       </c>
       <c r="K19">
-        <v>1.023922126876159</v>
+        <v>1.025060514280101</v>
       </c>
       <c r="L19">
-        <v>1.007441722901489</v>
+        <v>1.008741723128519</v>
       </c>
       <c r="M19">
-        <v>1.030749135376122</v>
+        <v>1.031369053482112</v>
       </c>
       <c r="N19">
-        <v>1.007319389519453</v>
+        <v>1.010411050699579</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.033481164212485</v>
+        <v>1.033971468320429</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028060676157411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028881826781799</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018929852635367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9815377396149046</v>
+        <v>0.9833060727821907</v>
       </c>
       <c r="D20">
-        <v>1.00842258024452</v>
+        <v>1.009864352903926</v>
       </c>
       <c r="E20">
-        <v>0.991299315210562</v>
+        <v>0.9928898962047875</v>
       </c>
       <c r="F20">
-        <v>1.013868788692863</v>
+        <v>1.014634464862143</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039927504039252</v>
+        <v>1.040608504080046</v>
       </c>
       <c r="J20">
-        <v>1.009799381483311</v>
+        <v>1.011496038907759</v>
       </c>
       <c r="K20">
-        <v>1.022318928052205</v>
+        <v>1.023735939231843</v>
       </c>
       <c r="L20">
-        <v>1.005496900671644</v>
+        <v>1.007058931098701</v>
       </c>
       <c r="M20">
-        <v>1.027672078402995</v>
+        <v>1.028424775012865</v>
       </c>
       <c r="N20">
-        <v>1.006497671656731</v>
+        <v>1.009918692793087</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03051420078018</v>
+        <v>1.031109887724557</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026931103105433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027949651724587</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018565008456232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9755871573119594</v>
+        <v>0.9779977141592887</v>
       </c>
       <c r="D21">
-        <v>1.004455945981907</v>
+        <v>1.006510597802626</v>
       </c>
       <c r="E21">
-        <v>0.9865628668773871</v>
+        <v>0.9887312473599409</v>
       </c>
       <c r="F21">
-        <v>1.009871918564348</v>
+        <v>1.010929354084723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.038608563371051</v>
+        <v>1.039569870976841</v>
       </c>
       <c r="J21">
-        <v>1.006142257472366</v>
+        <v>1.008445040980318</v>
       </c>
       <c r="K21">
-        <v>1.019353388008861</v>
+        <v>1.02136966586956</v>
       </c>
       <c r="L21">
-        <v>1.001803361364956</v>
+        <v>1.003929301583645</v>
       </c>
       <c r="M21">
-        <v>1.024668647338961</v>
+        <v>1.025706583280175</v>
       </c>
       <c r="N21">
-        <v>1.005183623284582</v>
+        <v>1.009490425318197</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.028095861343165</v>
+        <v>1.02891733202219</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02483759019321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026280193889583</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018032261055432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9717860460046571</v>
+        <v>0.9746103291597256</v>
       </c>
       <c r="D22">
-        <v>1.001926965878332</v>
+        <v>1.004376299081236</v>
       </c>
       <c r="E22">
-        <v>0.9835498690371817</v>
+        <v>0.9860906666747987</v>
       </c>
       <c r="F22">
-        <v>1.007422411360652</v>
+        <v>1.008668774721051</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.037766383392976</v>
+        <v>1.038908825464192</v>
       </c>
       <c r="J22">
-        <v>1.003816541396073</v>
+        <v>1.006506812434867</v>
       </c>
       <c r="K22">
-        <v>1.017460345607956</v>
+        <v>1.019861556308822</v>
       </c>
       <c r="L22">
-        <v>0.99945440495352</v>
+        <v>1.001942799454262</v>
       </c>
       <c r="M22">
-        <v>1.02284824905083</v>
+        <v>1.024070435591324</v>
       </c>
       <c r="N22">
-        <v>1.004350032407063</v>
+        <v>1.009214412715573</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.02665511127721</v>
+        <v>1.027622408355548</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.023485407924524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025198908810789</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017692183346485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9737925879294727</v>
+        <v>0.9763789477080106</v>
       </c>
       <c r="D23">
-        <v>1.003253895997492</v>
+        <v>1.005479405685676</v>
       </c>
       <c r="E23">
-        <v>0.9851367824171836</v>
+        <v>0.9874625147316002</v>
       </c>
       <c r="F23">
-        <v>1.008717189511072</v>
+        <v>1.009854384307603</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038206027961249</v>
+        <v>1.039245031922037</v>
       </c>
       <c r="J23">
-        <v>1.005038328394338</v>
+        <v>1.007505744921922</v>
       </c>
       <c r="K23">
-        <v>1.018449843018151</v>
+        <v>1.020632775736304</v>
       </c>
       <c r="L23">
-        <v>1.000688756902132</v>
+        <v>1.002967823743523</v>
       </c>
       <c r="M23">
-        <v>1.023809054920209</v>
+        <v>1.024924769946896</v>
       </c>
       <c r="N23">
-        <v>1.00478507324043</v>
+        <v>1.009308905572443</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.027415539263886</v>
+        <v>1.028298568753802</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024175270387156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025733497401399</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017862211252243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9815297415744266</v>
+        <v>0.9833039521017568</v>
       </c>
       <c r="D24">
-        <v>1.00839544520315</v>
+        <v>1.009842207243015</v>
       </c>
       <c r="E24">
-        <v>0.9912787612528832</v>
+        <v>0.9928754238915555</v>
       </c>
       <c r="F24">
-        <v>1.013731928158634</v>
+        <v>1.014500688498156</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039890733628775</v>
+        <v>1.040575283553845</v>
       </c>
       <c r="J24">
-        <v>1.009757807282356</v>
+        <v>1.011460204293233</v>
       </c>
       <c r="K24">
-        <v>1.022276714219316</v>
+        <v>1.023698659476873</v>
       </c>
       <c r="L24">
-        <v>1.005460782396921</v>
+        <v>1.00702882103457</v>
       </c>
       <c r="M24">
-        <v>1.027522112086076</v>
+        <v>1.028277852834839</v>
       </c>
       <c r="N24">
-        <v>1.006469451424557</v>
+        <v>1.00989537132004</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.030354223438832</v>
+        <v>1.030952349890416</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026873517403206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027892904021892</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018548000232997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.990141746642208</v>
+        <v>0.9912850219168694</v>
       </c>
       <c r="D25">
-        <v>1.014140584495391</v>
+        <v>1.014928633386237</v>
       </c>
       <c r="E25">
-        <v>0.9981496694598948</v>
+        <v>0.9991896864267488</v>
       </c>
       <c r="F25">
-        <v>1.019364608751894</v>
+        <v>1.019851942102245</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041722420978398</v>
+        <v>1.042118406122045</v>
       </c>
       <c r="J25">
-        <v>1.015005496804017</v>
+        <v>1.016109281975455</v>
       </c>
       <c r="K25">
-        <v>1.026523281502944</v>
+        <v>1.027299538916983</v>
       </c>
       <c r="L25">
-        <v>1.01077677749709</v>
+        <v>1.011800594506938</v>
       </c>
       <c r="M25">
-        <v>1.031669571556834</v>
+        <v>1.032149704912241</v>
       </c>
       <c r="N25">
-        <v>1.008339833529739</v>
+        <v>1.011153816408299</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.033636698876126</v>
+        <v>1.034016695796255</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029873223921288</v>
+        <v>1.030435737949544</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019365991420244</v>
       </c>
     </row>
   </sheetData>
